--- a/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/გურია/ოზურგეთი.xlsx
+++ b/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/გურია/ოზურგეთი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\პენსიის მიმღებები\გურიია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\შესაცვლელი\ჯანდაცვა\პენსია\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ოზურგეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,25 +617,25 @@
         <v>14070</v>
       </c>
       <c r="E4" s="7">
-        <v>10608</v>
+        <v>14218</v>
       </c>
       <c r="F4" s="7">
-        <v>10763</v>
+        <v>14418</v>
       </c>
       <c r="G4" s="8">
-        <v>10813</v>
+        <v>14513</v>
       </c>
       <c r="H4" s="8">
-        <v>10883</v>
+        <v>14643</v>
       </c>
       <c r="I4" s="8">
-        <v>10959</v>
+        <v>14751</v>
       </c>
       <c r="J4" s="8">
-        <v>11160</v>
+        <v>14991</v>
       </c>
       <c r="K4" s="8">
-        <v>11232</v>
+        <v>15066</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
